--- a/scripts/test_results/export_force_data.xlsx
+++ b/scripts/test_results/export_force_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,211 +452,211 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.05</v>
+        <v>0.05</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.53</v>
+        <v>-0.12</v>
       </c>
       <c r="C2" t="n">
-        <v>1.9</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.05</v>
+        <v>0.05</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.53</v>
+        <v>-0.12</v>
       </c>
       <c r="C3" t="n">
-        <v>1.9</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.05</v>
+        <v>0.05</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.53</v>
+        <v>-0.12</v>
       </c>
       <c r="C4" t="n">
-        <v>1.9</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.05</v>
+        <v>0.05</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.53</v>
+        <v>-0.12</v>
       </c>
       <c r="C5" t="n">
-        <v>1.9</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.15</v>
+        <v>0.05</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.52</v>
+        <v>-0.12</v>
       </c>
       <c r="C6" t="n">
-        <v>2.2</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.2</v>
+        <v>0.05</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.57</v>
+        <v>-0.12</v>
       </c>
       <c r="C7" t="n">
-        <v>2.49</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.16</v>
+        <v>0.05</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.58</v>
+        <v>-0.12</v>
       </c>
       <c r="C8" t="n">
-        <v>2.5</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.16</v>
+        <v>0.05</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.58</v>
+        <v>-0.12</v>
       </c>
       <c r="C9" t="n">
-        <v>2.5</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.13</v>
+        <v>0.05</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.61</v>
+        <v>-0.12</v>
       </c>
       <c r="C10" t="n">
-        <v>2.34</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.09</v>
+        <v>0.05</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.6</v>
+        <v>-0.12</v>
       </c>
       <c r="C11" t="n">
-        <v>2.3</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.05</v>
+        <v>0.05</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.6</v>
+        <v>-0.12</v>
       </c>
       <c r="C12" t="n">
-        <v>2.2</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.02</v>
+        <v>0.05</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.6</v>
+        <v>-0.12</v>
       </c>
       <c r="C13" t="n">
-        <v>2.12</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.02</v>
+        <v>0.05</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.6</v>
+        <v>-0.12</v>
       </c>
       <c r="C14" t="n">
-        <v>2.12</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0</v>
+        <v>0.05</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.6</v>
+        <v>-0.12</v>
       </c>
       <c r="C15" t="n">
-        <v>2.07</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.61</v>
+        <v>-0.12</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.61</v>
+        <v>-0.12</v>
       </c>
       <c r="C17" t="n">
-        <v>1.9</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.61</v>
+        <v>-0.12</v>
       </c>
       <c r="C18" t="n">
-        <v>1.9</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.61</v>
+        <v>-0.12</v>
       </c>
       <c r="C19" t="n">
-        <v>1.87</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.6</v>
+        <v>-0.11</v>
       </c>
       <c r="C20" t="n">
-        <v>1.85</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="21">
@@ -664,604 +664,604 @@
         <v>0.05</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.62</v>
+        <v>-0.11</v>
       </c>
       <c r="C21" t="n">
-        <v>1.8</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.66</v>
+        <v>-0.1</v>
       </c>
       <c r="C22" t="n">
-        <v>1.33</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.66</v>
+        <v>-0.1</v>
       </c>
       <c r="C23" t="n">
-        <v>1.33</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.67</v>
+        <v>-0.1</v>
       </c>
       <c r="C24" t="n">
-        <v>1.48</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.67</v>
+        <v>-0.09</v>
       </c>
       <c r="C25" t="n">
-        <v>0.75</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.09</v>
       </c>
       <c r="C26" t="n">
-        <v>1.5</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.08</v>
       </c>
       <c r="C27" t="n">
-        <v>1.5</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.68</v>
+        <v>-0.08</v>
       </c>
       <c r="C28" t="n">
-        <v>1.46</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.68</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>1.47</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.68</v>
+        <v>-0.06</v>
       </c>
       <c r="C30" t="n">
-        <v>1.45</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.68</v>
+        <v>-0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>1.44</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.68</v>
+        <v>-0.05</v>
       </c>
       <c r="C32" t="n">
-        <v>1.44</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.67</v>
+        <v>-0.03</v>
       </c>
       <c r="C33" t="n">
-        <v>1.36</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.66</v>
+        <v>-0.02</v>
       </c>
       <c r="C34" t="n">
-        <v>1.33</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.65</v>
+        <v>-0.01</v>
       </c>
       <c r="C35" t="n">
-        <v>1.31</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.65</v>
+        <v>-0.01</v>
       </c>
       <c r="C36" t="n">
-        <v>1.33</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.65</v>
+        <v>-0.01</v>
       </c>
       <c r="C37" t="n">
-        <v>1.33</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.65</v>
+        <v>0.01</v>
       </c>
       <c r="C38" t="n">
-        <v>1.28</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.64</v>
+        <v>0.03</v>
       </c>
       <c r="C39" t="n">
-        <v>1.26</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.63</v>
+        <v>0.04</v>
       </c>
       <c r="C40" t="n">
-        <v>1.23</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.63</v>
+        <v>0.04</v>
       </c>
       <c r="C41" t="n">
-        <v>1.23</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.63</v>
+        <v>0.06</v>
       </c>
       <c r="C42" t="n">
-        <v>1.13</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="B43" t="n">
         <v>0.08</v>
       </c>
-      <c r="B43" t="n">
-        <v>-0.63</v>
-      </c>
       <c r="C43" t="n">
-        <v>1.02</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.62</v>
+        <v>0.1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.88</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.63</v>
+        <v>0.11</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6899999999999999</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.63</v>
+        <v>0.11</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6899999999999999</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.62</v>
+        <v>0.13</v>
       </c>
       <c r="C47" t="n">
-        <v>0.51</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.62</v>
+        <v>0.14</v>
       </c>
       <c r="C48" t="n">
-        <v>0.31</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.62</v>
+        <v>0.14</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.62</v>
+        <v>0.14</v>
       </c>
       <c r="C50" t="n">
-        <v>0.06</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.61</v>
+        <v>0.16</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.21</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="B52" t="n">
         <v>0.15</v>
       </c>
-      <c r="B52" t="n">
-        <v>-0.61</v>
-      </c>
       <c r="C52" t="n">
-        <v>-0.52</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.61</v>
+        <v>0.15</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.76</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.61</v>
+        <v>0.2</v>
       </c>
       <c r="C54" t="n">
-        <v>-1</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.61</v>
+        <v>0.2</v>
       </c>
       <c r="C55" t="n">
-        <v>-1</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.62</v>
+        <v>0.24</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.31</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.61</v>
+        <v>0.27</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.57</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.58</v>
+        <v>0.29</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.76</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.3</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.58</v>
+        <v>0.53</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.76</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.37</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.55</v>
+        <v>0.53</v>
       </c>
       <c r="C60" t="n">
-        <v>-2.02</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.43</v>
+        <v>0.12</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.5</v>
+        <v>0.85</v>
       </c>
       <c r="C61" t="n">
-        <v>-2.17</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.46</v>
+        <v>0.17</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.43</v>
+        <v>1.09</v>
       </c>
       <c r="C62" t="n">
-        <v>-2.39</v>
+        <v>-3.39</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.5</v>
+        <v>0.19</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.36</v>
+        <v>1.28</v>
       </c>
       <c r="C63" t="n">
-        <v>-2.57</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.5</v>
+        <v>0.19</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.36</v>
+        <v>1.28</v>
       </c>
       <c r="C64" t="n">
-        <v>-2.57</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.51</v>
+        <v>0.22</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.3</v>
+        <v>1.42</v>
       </c>
       <c r="C65" t="n">
-        <v>-2.71</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.52</v>
+        <v>0.23</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.22</v>
+        <v>1.46</v>
       </c>
       <c r="C66" t="n">
-        <v>-2.88</v>
+        <v>-4.73</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.53</v>
+        <v>0.24</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.14</v>
+        <v>1.5</v>
       </c>
       <c r="C67" t="n">
-        <v>-3.02</v>
+        <v>-4.88</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.52</v>
+        <v>0.23</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.06</v>
+        <v>1.53</v>
       </c>
       <c r="C68" t="n">
-        <v>-3.19</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.52</v>
+        <v>0.23</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.06</v>
+        <v>1.53</v>
       </c>
       <c r="C69" t="n">
-        <v>-3.19</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.49</v>
+        <v>0.23</v>
       </c>
       <c r="B70" t="n">
-        <v>0.04</v>
+        <v>1.52</v>
       </c>
       <c r="C70" t="n">
-        <v>-3.34</v>
+        <v>-4.95</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.47</v>
+        <v>0.23</v>
       </c>
       <c r="B71" t="n">
-        <v>0.12</v>
+        <v>1.52</v>
       </c>
       <c r="C71" t="n">
-        <v>-3.47</v>
+        <v>-4.95</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.42</v>
+        <v>0.23</v>
       </c>
       <c r="B72" t="n">
-        <v>0.18</v>
+        <v>1.52</v>
       </c>
       <c r="C72" t="n">
-        <v>-3.61</v>
+        <v>-4.95</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.42</v>
+        <v>0.23</v>
       </c>
       <c r="B73" t="n">
-        <v>0.18</v>
+        <v>1.52</v>
       </c>
       <c r="C73" t="n">
-        <v>-3.61</v>
+        <v>-4.95</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="B74" t="n">
-        <v>0.23</v>
+        <v>1.53</v>
       </c>
       <c r="C74" t="n">
-        <v>-3.74</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
       <c r="B75" t="n">
-        <v>0.28</v>
+        <v>1.53</v>
       </c>
       <c r="C75" t="n">
-        <v>-3.81</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="76">
@@ -1269,395 +1269,395 @@
         <v>0.21</v>
       </c>
       <c r="B76" t="n">
-        <v>0.32</v>
+        <v>1.51</v>
       </c>
       <c r="C76" t="n">
-        <v>-3.92</v>
+        <v>-4.93</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="B77" t="n">
-        <v>0.31</v>
+        <v>1.52</v>
       </c>
       <c r="C77" t="n">
-        <v>-4.05</v>
+        <v>-4.95</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="B78" t="n">
-        <v>0.31</v>
+        <v>1.52</v>
       </c>
       <c r="C78" t="n">
-        <v>-4.05</v>
+        <v>-4.95</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="B79" t="n">
-        <v>0.32</v>
+        <v>1.52</v>
       </c>
       <c r="C79" t="n">
-        <v>-4.13</v>
+        <v>-4.95</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-0.08</v>
+        <v>0.21</v>
       </c>
       <c r="B80" t="n">
-        <v>0.3</v>
+        <v>1.52</v>
       </c>
       <c r="C80" t="n">
-        <v>-4.23</v>
+        <v>-4.98</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.19</v>
+        <v>0.23</v>
       </c>
       <c r="B81" t="n">
-        <v>0.25</v>
+        <v>1.53</v>
       </c>
       <c r="C81" t="n">
-        <v>-4.3</v>
+        <v>-5.01</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-0.19</v>
+        <v>0.21</v>
       </c>
       <c r="B82" t="n">
-        <v>0.25</v>
+        <v>1.51</v>
       </c>
       <c r="C82" t="n">
-        <v>-4.3</v>
+        <v>-4.99</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-0.32</v>
+        <v>0.21</v>
       </c>
       <c r="B83" t="n">
-        <v>0.14</v>
+        <v>1.51</v>
       </c>
       <c r="C83" t="n">
-        <v>-4.38</v>
+        <v>-4.99</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-0.47</v>
+        <v>0.2</v>
       </c>
       <c r="B84" t="n">
-        <v>0.01</v>
+        <v>1.5</v>
       </c>
       <c r="C84" t="n">
-        <v>-4.42</v>
+        <v>-4.98</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-0.61</v>
+        <v>0.2</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.13</v>
+        <v>1.48</v>
       </c>
       <c r="C85" t="n">
-        <v>-4.43</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-0.67</v>
+        <v>0.2</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.29</v>
+        <v>1.46</v>
       </c>
       <c r="C86" t="n">
-        <v>-4.45</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-0.67</v>
+        <v>0.2</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.29</v>
+        <v>1.46</v>
       </c>
       <c r="C87" t="n">
-        <v>-4.45</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-0.8</v>
+        <v>0.19</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.46</v>
+        <v>1.44</v>
       </c>
       <c r="C88" t="n">
-        <v>-4.44</v>
+        <v>-4.91</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-0.84</v>
+        <v>0.19</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.59</v>
+        <v>1.44</v>
       </c>
       <c r="C89" t="n">
-        <v>-4.45</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-0.88</v>
+        <v>0.19</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.74</v>
+        <v>1.43</v>
       </c>
       <c r="C90" t="n">
-        <v>-4.45</v>
+        <v>-4.95</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-0.88</v>
+        <v>0.19</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.74</v>
+        <v>1.43</v>
       </c>
       <c r="C91" t="n">
-        <v>-4.45</v>
+        <v>-4.98</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-0.99</v>
+        <v>0.19</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.92</v>
+        <v>1.43</v>
       </c>
       <c r="C92" t="n">
-        <v>-4.46</v>
+        <v>-4.98</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-1</v>
+        <v>0.19</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.13</v>
+        <v>1.41</v>
       </c>
       <c r="C93" t="n">
-        <v>-4.43</v>
+        <v>-4.99</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-0.98</v>
+        <v>0.19</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.29</v>
+        <v>1.39</v>
       </c>
       <c r="C94" t="n">
-        <v>-4.45</v>
+        <v>-4.98</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.92</v>
+        <v>0.19</v>
       </c>
       <c r="B95" t="n">
-        <v>-1.4</v>
+        <v>1.36</v>
       </c>
       <c r="C95" t="n">
-        <v>-4.47</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-0.92</v>
+        <v>0.19</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.4</v>
+        <v>1.36</v>
       </c>
       <c r="C96" t="n">
-        <v>-4.47</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-0.86</v>
+        <v>0.18</v>
       </c>
       <c r="B97" t="n">
-        <v>-1.49</v>
+        <v>1.34</v>
       </c>
       <c r="C97" t="n">
-        <v>-4.46</v>
+        <v>-4.91</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.79</v>
+        <v>0.18</v>
       </c>
       <c r="B98" t="n">
-        <v>-1.51</v>
+        <v>1.31</v>
       </c>
       <c r="C98" t="n">
-        <v>-4.48</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-0.72</v>
+        <v>0.17</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.54</v>
+        <v>1.29</v>
       </c>
       <c r="C99" t="n">
-        <v>-4.5</v>
+        <v>-4.87</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-0.64</v>
+        <v>0.16</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.59</v>
+        <v>1.27</v>
       </c>
       <c r="C100" t="n">
-        <v>-4.53</v>
+        <v>-4.87</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-0.64</v>
+        <v>0.16</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.59</v>
+        <v>1.27</v>
       </c>
       <c r="C101" t="n">
-        <v>-4.53</v>
+        <v>-4.87</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-0.54</v>
+        <v>0.16</v>
       </c>
       <c r="B102" t="n">
-        <v>-1.58</v>
+        <v>1.25</v>
       </c>
       <c r="C102" t="n">
-        <v>-4.53</v>
+        <v>-4.88</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-0.38</v>
+        <v>0.16</v>
       </c>
       <c r="B103" t="n">
-        <v>-1.57</v>
+        <v>1.22</v>
       </c>
       <c r="C103" t="n">
-        <v>-4.54</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-0.31</v>
+        <v>0.16</v>
       </c>
       <c r="B104" t="n">
-        <v>-1.54</v>
+        <v>1.21</v>
       </c>
       <c r="C104" t="n">
-        <v>-4.58</v>
+        <v>-4.93</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-0.31</v>
+        <v>0.16</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.54</v>
+        <v>1.21</v>
       </c>
       <c r="C105" t="n">
-        <v>-4.58</v>
+        <v>-4.93</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-0.22</v>
+        <v>0.16</v>
       </c>
       <c r="B106" t="n">
-        <v>-1.51</v>
+        <v>1.19</v>
       </c>
       <c r="C106" t="n">
-        <v>-4.58</v>
+        <v>-4.95</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.15</v>
+        <v>0.16</v>
       </c>
       <c r="B107" t="n">
-        <v>-1.46</v>
+        <v>1.16</v>
       </c>
       <c r="C107" t="n">
-        <v>-4.61</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-0.06</v>
+        <v>0.16</v>
       </c>
       <c r="B108" t="n">
-        <v>-1.37</v>
+        <v>1.13</v>
       </c>
       <c r="C108" t="n">
-        <v>-4.67</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="B109" t="n">
-        <v>-1.31</v>
+        <v>1.1</v>
       </c>
       <c r="C109" t="n">
-        <v>-4.68</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="B110" t="n">
-        <v>-1.31</v>
+        <v>1.1</v>
       </c>
       <c r="C110" t="n">
-        <v>-4.68</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.21</v>
+        <v>1.05</v>
       </c>
       <c r="C111" t="n">
-        <v>-4.69</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="112">
@@ -1665,989 +1665,571 @@
         <v>0.18</v>
       </c>
       <c r="B112" t="n">
-        <v>-1.15</v>
+        <v>1.01</v>
       </c>
       <c r="C112" t="n">
-        <v>-4.75</v>
+        <v>-4.87</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="B113" t="n">
-        <v>-1.09</v>
+        <v>0.98</v>
       </c>
       <c r="C113" t="n">
-        <v>-4.84</v>
+        <v>-4.86</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="B114" t="n">
-        <v>-1.09</v>
+        <v>0.98</v>
       </c>
       <c r="C114" t="n">
-        <v>-4.84</v>
+        <v>-4.86</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.98</v>
+        <v>0.95</v>
       </c>
       <c r="C115" t="n">
-        <v>-4.9</v>
+        <v>-4.87</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.84</v>
+        <v>0.93</v>
       </c>
       <c r="C116" t="n">
-        <v>-4.98</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.66</v>
+        <v>0.9</v>
       </c>
       <c r="C117" t="n">
-        <v>-5.03</v>
+        <v>-4.91</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.51</v>
+        <v>0.84</v>
       </c>
       <c r="C118" t="n">
-        <v>-5.08</v>
+        <v>-4.91</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.51</v>
+        <v>0.84</v>
       </c>
       <c r="C119" t="n">
-        <v>-5.08</v>
+        <v>-4.91</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.33</v>
+        <v>0.15</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.36</v>
+        <v>0.8</v>
       </c>
       <c r="C120" t="n">
-        <v>-5.21</v>
+        <v>-4.91</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.21</v>
+        <v>0.75</v>
       </c>
       <c r="C121" t="n">
-        <v>-5.24</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.12</v>
+        <v>0.7</v>
       </c>
       <c r="C122" t="n">
-        <v>-5.3</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.31</v>
+        <v>0.14</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.12</v>
+        <v>0.61</v>
       </c>
       <c r="C123" t="n">
-        <v>-5.3</v>
+        <v>-4.93</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.03</v>
+        <v>0.61</v>
       </c>
       <c r="C124" t="n">
-        <v>-5.34</v>
+        <v>-4.93</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="B125" t="n">
-        <v>0.04</v>
+        <v>0.55</v>
       </c>
       <c r="C125" t="n">
-        <v>-5.37</v>
+        <v>-4.99</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="B126" t="n">
-        <v>0.08</v>
+        <v>0.44</v>
       </c>
       <c r="C126" t="n">
-        <v>-5.39</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="B127" t="n">
-        <v>0.09</v>
+        <v>0.35</v>
       </c>
       <c r="C127" t="n">
-        <v>-5.45</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="B128" t="n">
-        <v>0.09</v>
+        <v>0.35</v>
       </c>
       <c r="C128" t="n">
-        <v>-5.45</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="B129" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="C129" t="n">
-        <v>-5.49</v>
+        <v>-4.99</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="B130" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="C130" t="n">
-        <v>-5.58</v>
+        <v>-5.01</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-0.17</v>
+        <v>0.14</v>
       </c>
       <c r="B131" t="n">
-        <v>0.14</v>
+        <v>-0.03</v>
       </c>
       <c r="C131" t="n">
-        <v>-5.66</v>
+        <v>-4.98</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-0.24</v>
+        <v>0.14</v>
       </c>
       <c r="B132" t="n">
-        <v>0.11</v>
+        <v>-0.17</v>
       </c>
       <c r="C132" t="n">
-        <v>-5.76</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-0.24</v>
+        <v>0.14</v>
       </c>
       <c r="B133" t="n">
-        <v>0.11</v>
+        <v>-0.17</v>
       </c>
       <c r="C133" t="n">
-        <v>-5.76</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-0.34</v>
+        <v>0.15</v>
       </c>
       <c r="B134" t="n">
-        <v>0.05</v>
+        <v>-0.32</v>
       </c>
       <c r="C134" t="n">
-        <v>-5.84</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-0.38</v>
+        <v>0.13</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.01</v>
+        <v>-0.44</v>
       </c>
       <c r="C135" t="n">
-        <v>-5.87</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-0.47</v>
+        <v>0.13</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.08</v>
+        <v>-0.57</v>
       </c>
       <c r="C136" t="n">
-        <v>-5.87</v>
+        <v>-4.91</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-0.47</v>
+        <v>0.13</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.08</v>
+        <v>-0.57</v>
       </c>
       <c r="C137" t="n">
-        <v>-5.87</v>
+        <v>-4.91</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-0.52</v>
+        <v>0.13</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.21</v>
+        <v>-0.73</v>
       </c>
       <c r="C138" t="n">
-        <v>-5.86</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-0.55</v>
+        <v>0.13</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.35</v>
+        <v>-0.9</v>
       </c>
       <c r="C139" t="n">
-        <v>-5.86</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-0.61</v>
+        <v>0.14</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.47</v>
+        <v>-1.07</v>
       </c>
       <c r="C140" t="n">
-        <v>-5.86</v>
+        <v>-4.91</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-0.63</v>
+        <v>0.15</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.64</v>
+        <v>-1.24</v>
       </c>
       <c r="C141" t="n">
-        <v>-5.88</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-0.63</v>
+        <v>0.15</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.64</v>
+        <v>-1.24</v>
       </c>
       <c r="C142" t="n">
-        <v>-5.88</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-0.61</v>
+        <v>0.16</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.79</v>
+        <v>-1.46</v>
       </c>
       <c r="C143" t="n">
-        <v>-5.84</v>
+        <v>-4.85</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-0.62</v>
+        <v>0.16</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.96</v>
+        <v>-1.72</v>
       </c>
       <c r="C144" t="n">
-        <v>-5.83</v>
+        <v>-4.78</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-0.5600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B145" t="n">
-        <v>-1.05</v>
+        <v>-2</v>
       </c>
       <c r="C145" t="n">
-        <v>-5.87</v>
+        <v>-4.69</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-0.54</v>
+        <v>0.2</v>
       </c>
       <c r="B146" t="n">
-        <v>-1.15</v>
+        <v>-2</v>
       </c>
       <c r="C146" t="n">
-        <v>-5.85</v>
+        <v>-4.69</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-0.54</v>
+        <v>0.19</v>
       </c>
       <c r="B147" t="n">
-        <v>-1.15</v>
+        <v>-2.27</v>
       </c>
       <c r="C147" t="n">
-        <v>-5.85</v>
+        <v>-4.59</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-0.5</v>
+        <v>0.17</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.24</v>
+        <v>-2.44</v>
       </c>
       <c r="C148" t="n">
-        <v>-5.85</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-0.43</v>
+        <v>0.16</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.27</v>
+        <v>-2.54</v>
       </c>
       <c r="C149" t="n">
-        <v>-5.88</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-0.37</v>
+        <v>0.16</v>
       </c>
       <c r="B150" t="n">
-        <v>-1.33</v>
+        <v>-2.6</v>
       </c>
       <c r="C150" t="n">
-        <v>-5.9</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-0.37</v>
+        <v>0.16</v>
       </c>
       <c r="B151" t="n">
-        <v>-1.33</v>
+        <v>-2.6</v>
       </c>
       <c r="C151" t="n">
-        <v>-5.9</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>-0.31</v>
+        <v>0.16</v>
       </c>
       <c r="B152" t="n">
-        <v>-1.33</v>
+        <v>-2.62</v>
       </c>
       <c r="C152" t="n">
-        <v>-5.89</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-0.21</v>
+        <v>0.16</v>
       </c>
       <c r="B153" t="n">
-        <v>-1.32</v>
+        <v>-2.63</v>
       </c>
       <c r="C153" t="n">
-        <v>-5.87</v>
+        <v>-4.96</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-0.11</v>
+        <v>0.17</v>
       </c>
       <c r="B154" t="n">
-        <v>-1.34</v>
+        <v>-2.64</v>
       </c>
       <c r="C154" t="n">
-        <v>-5.87</v>
+        <v>-5.02</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-0.11</v>
+        <v>0.17</v>
       </c>
       <c r="B155" t="n">
-        <v>-1.34</v>
+        <v>-2.65</v>
       </c>
       <c r="C155" t="n">
-        <v>-5.87</v>
+        <v>-5.08</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-0.03</v>
+        <v>0.17</v>
       </c>
       <c r="B156" t="n">
-        <v>-1.31</v>
+        <v>-2.65</v>
       </c>
       <c r="C156" t="n">
-        <v>-5.9</v>
+        <v>-5.08</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.01</v>
+        <v>0.17</v>
       </c>
       <c r="B157" t="n">
-        <v>-1.28</v>
+        <v>-2.65</v>
       </c>
       <c r="C157" t="n">
-        <v>-5.88</v>
+        <v>-5.11</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="B158" t="n">
-        <v>-1.22</v>
+        <v>-2.67</v>
       </c>
       <c r="C158" t="n">
-        <v>-5.88</v>
+        <v>-5.14</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="B159" t="n">
-        <v>-1.13</v>
+        <v>-2.66</v>
       </c>
       <c r="C159" t="n">
-        <v>-5.88</v>
+        <v>-5.13</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="B160" t="n">
-        <v>-1.13</v>
+        <v>-2.66</v>
       </c>
       <c r="C160" t="n">
-        <v>-5.88</v>
+        <v>-5.13</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="B161" t="n">
-        <v>-1.05</v>
+        <v>-2.66</v>
       </c>
       <c r="C161" t="n">
-        <v>-5.91</v>
+        <v>-5.13</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.96</v>
+        <v>-2.65</v>
       </c>
       <c r="C162" t="n">
-        <v>-5.93</v>
+        <v>-5.12</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.91</v>
+        <v>-2.65</v>
       </c>
       <c r="C163" t="n">
-        <v>-5.99</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="B164" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="C164" t="n">
-        <v>-6.04</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="B165" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="C165" t="n">
-        <v>-6.04</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="B166" t="n">
-        <v>-0.6899999999999999</v>
-      </c>
-      <c r="C166" t="n">
-        <v>-6.09</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="B167" t="n">
-        <v>-0.57</v>
-      </c>
-      <c r="C167" t="n">
-        <v>-6.13</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="B168" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="C168" t="n">
-        <v>-6.16</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="B169" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="C169" t="n">
-        <v>-6.16</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="B170" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="C170" t="n">
-        <v>-6.18</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="B171" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="C171" t="n">
-        <v>-6.2</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="B172" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="C172" t="n">
-        <v>-6.2</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="B173" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="C173" t="n">
-        <v>-6.2</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="B174" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="C174" t="n">
-        <v>-6.2</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="B175" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="C175" t="n">
-        <v>-6.21</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="B176" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="C176" t="n">
-        <v>-6.25</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="B177" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="C177" t="n">
-        <v>-6.22</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="B178" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="C178" t="n">
-        <v>-6.22</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>-0</v>
-      </c>
-      <c r="B179" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="C179" t="n">
-        <v>-6.26</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>-0.08</v>
-      </c>
-      <c r="B180" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="C180" t="n">
-        <v>-6.33</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="B181" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="C181" t="n">
-        <v>-6.4</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>-0.22</v>
-      </c>
-      <c r="B182" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="C182" t="n">
-        <v>-6.5</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>-0.22</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="C183" t="n">
-        <v>-6.5</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="B184" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="C184" t="n">
-        <v>-6.53</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="B185" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="C185" t="n">
-        <v>-6.61</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="B186" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="C186" t="n">
-        <v>-6.56</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="B187" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="C187" t="n">
-        <v>-6.56</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="B188" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="C188" t="n">
-        <v>-6.59</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>-0.53</v>
-      </c>
-      <c r="B189" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="C189" t="n">
-        <v>-6.57</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
-      <c r="B190" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="C190" t="n">
-        <v>-6.54</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>-0.59</v>
-      </c>
-      <c r="B191" t="n">
-        <v>-0.55</v>
-      </c>
-      <c r="C191" t="n">
-        <v>-6.58</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>-0.61</v>
-      </c>
-      <c r="B192" t="n">
-        <v>-0.68</v>
-      </c>
-      <c r="C192" t="n">
-        <v>-6.53</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>-0.61</v>
-      </c>
-      <c r="B193" t="n">
-        <v>-0.68</v>
-      </c>
-      <c r="C193" t="n">
-        <v>-6.53</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>-0.59</v>
-      </c>
-      <c r="B194" t="n">
-        <v>-0.84</v>
-      </c>
-      <c r="C194" t="n">
-        <v>-6.54</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="B195" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="C195" t="n">
-        <v>-6.52</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>-0.47</v>
-      </c>
-      <c r="B196" t="n">
-        <v>-1.03</v>
-      </c>
-      <c r="C196" t="n">
-        <v>-6.52</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>-0.47</v>
-      </c>
-      <c r="B197" t="n">
-        <v>-1.03</v>
-      </c>
-      <c r="C197" t="n">
-        <v>-6.52</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="B198" t="n">
-        <v>-1.16</v>
-      </c>
-      <c r="C198" t="n">
-        <v>-6.49</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>-0.36</v>
-      </c>
-      <c r="B199" t="n">
-        <v>-1.21</v>
-      </c>
-      <c r="C199" t="n">
-        <v>-6.52</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>-0.26</v>
-      </c>
-      <c r="B200" t="n">
-        <v>-1.21</v>
-      </c>
-      <c r="C200" t="n">
-        <v>-6.53</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="B201" t="n">
-        <v>-1.27</v>
-      </c>
-      <c r="C201" t="n">
-        <v>-6.51</v>
+        <v>-5.12</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/test_results/export_force_data.xlsx
+++ b/scripts/test_results/export_force_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,112 +452,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.12</v>
+        <v>-0.1</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="B6" t="n">
         <v>-0.12</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="B7" t="n">
         <v>-0.12</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.29</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.28</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.12</v>
+        <v>-0.14</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.28</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.12</v>
+        <v>-0.14</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.29</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.12</v>
+        <v>-0.14</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>0.05</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>0.05</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.29</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
@@ -587,32 +587,32 @@
         <v>0.05</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.12</v>
+        <v>-0.14</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.29</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.12</v>
+        <v>-0.14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.29</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.12</v>
+        <v>-0.14</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.31</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>0.06</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.12</v>
+        <v>-0.14</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>0.06</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.32</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>0.06</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.44</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="20">
@@ -653,230 +653,230 @@
         <v>0.06</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.11</v>
+        <v>-0.15</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.47</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.11</v>
+        <v>-0.14</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.48</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.1</v>
+        <v>-0.14</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.45</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.1</v>
+        <v>-0.14</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.45</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.1</v>
+        <v>-0.14</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.49</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.09</v>
+        <v>-0.14</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.45</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.09</v>
+        <v>-0.14</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.41</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.08</v>
+        <v>-0.14</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.33</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.08</v>
+        <v>-0.14</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.14</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.32</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.06</v>
+        <v>-0.14</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.27</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.05</v>
+        <v>-0.14</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.05</v>
+        <v>-0.14</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.03</v>
+        <v>-0.14</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.27</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.02</v>
+        <v>-0.14</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.28</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.01</v>
+        <v>-0.14</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.28</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.01</v>
+        <v>-0.13</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.28</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.01</v>
+        <v>-0.12</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.28</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01</v>
+        <v>-0.11</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.29</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="B39" t="n">
-        <v>0.03</v>
+        <v>-0.11</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.32</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="B40" t="n">
-        <v>0.04</v>
+        <v>-0.11</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.32</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>0.03</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04</v>
+        <v>-0.11</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.32</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>0.03</v>
       </c>
       <c r="B42" t="n">
-        <v>0.06</v>
+        <v>-0.1</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.36</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="43">
@@ -906,1330 +906,1748 @@
         <v>0.03</v>
       </c>
       <c r="B43" t="n">
-        <v>0.08</v>
+        <v>-0.1</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.4</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.43</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B45" t="n">
-        <v>0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.45</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.03</v>
+        <v>-0</v>
       </c>
       <c r="B46" t="n">
-        <v>0.11</v>
+        <v>-0.09</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.45</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="B47" t="n">
-        <v>0.13</v>
+        <v>-0.09</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.46</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="B48" t="n">
-        <v>0.14</v>
+        <v>-0.09</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.46</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="B49" t="n">
-        <v>0.14</v>
+        <v>-0.08</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.45</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
       <c r="B50" t="n">
-        <v>0.14</v>
+        <v>-0.08</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.45</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
       <c r="B51" t="n">
-        <v>0.16</v>
+        <v>-0.08</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.46</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="B52" t="n">
-        <v>0.15</v>
+        <v>-0.08</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.42</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="B53" t="n">
-        <v>0.15</v>
+        <v>-0.08</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.42</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="B54" t="n">
-        <v>0.2</v>
+        <v>-0.08</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.54</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="B55" t="n">
-        <v>0.2</v>
+        <v>-0.08</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.54</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="B56" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="C56" t="n">
         <v>0.24</v>
-      </c>
-      <c r="C56" t="n">
-        <v>-0.64</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="B57" t="n">
-        <v>0.27</v>
+        <v>-0.08</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.72</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="B58" t="n">
-        <v>0.29</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.77</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.01</v>
       </c>
       <c r="B59" t="n">
-        <v>0.53</v>
+        <v>-0.06</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.59</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.01</v>
       </c>
       <c r="B60" t="n">
-        <v>0.53</v>
+        <v>-0.05</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.59</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.12</v>
+        <v>-0.02</v>
       </c>
       <c r="B61" t="n">
-        <v>0.85</v>
+        <v>-0.05</v>
       </c>
       <c r="C61" t="n">
-        <v>-2.61</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.17</v>
+        <v>-0.02</v>
       </c>
       <c r="B62" t="n">
-        <v>1.09</v>
+        <v>-0.05</v>
       </c>
       <c r="C62" t="n">
-        <v>-3.39</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.19</v>
+        <v>-0.01</v>
       </c>
       <c r="B63" t="n">
-        <v>1.28</v>
+        <v>-0.03</v>
       </c>
       <c r="C63" t="n">
-        <v>-4.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.19</v>
+        <v>-0.01</v>
       </c>
       <c r="B64" t="n">
-        <v>1.28</v>
+        <v>-0.02</v>
       </c>
       <c r="C64" t="n">
-        <v>-4.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.22</v>
+        <v>-0.01</v>
       </c>
       <c r="B65" t="n">
-        <v>1.42</v>
+        <v>-0.01</v>
       </c>
       <c r="C65" t="n">
-        <v>-4.6</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.23</v>
+        <v>-0.01</v>
       </c>
       <c r="B66" t="n">
-        <v>1.46</v>
+        <v>-0.01</v>
       </c>
       <c r="C66" t="n">
-        <v>-4.73</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.24</v>
+        <v>-0.02</v>
       </c>
       <c r="B67" t="n">
-        <v>1.5</v>
+        <v>-0</v>
       </c>
       <c r="C67" t="n">
-        <v>-4.88</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.23</v>
+        <v>-0.02</v>
       </c>
       <c r="B68" t="n">
-        <v>1.53</v>
+        <v>-0.01</v>
       </c>
       <c r="C68" t="n">
-        <v>-4.97</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.23</v>
+        <v>-0.03</v>
       </c>
       <c r="B69" t="n">
-        <v>1.53</v>
+        <v>-0.01</v>
       </c>
       <c r="C69" t="n">
-        <v>-4.97</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.23</v>
+        <v>-0.04</v>
       </c>
       <c r="B70" t="n">
-        <v>1.52</v>
+        <v>-0.01</v>
       </c>
       <c r="C70" t="n">
-        <v>-4.95</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.23</v>
+        <v>-0.04</v>
       </c>
       <c r="B71" t="n">
-        <v>1.52</v>
+        <v>-0.01</v>
       </c>
       <c r="C71" t="n">
-        <v>-4.95</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.23</v>
+        <v>-0.05</v>
       </c>
       <c r="B72" t="n">
-        <v>1.52</v>
+        <v>-0.01</v>
       </c>
       <c r="C72" t="n">
-        <v>-4.95</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.23</v>
+        <v>-0.06</v>
       </c>
       <c r="B73" t="n">
-        <v>1.52</v>
+        <v>-0.03</v>
       </c>
       <c r="C73" t="n">
-        <v>-4.95</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.24</v>
+        <v>-0.05</v>
       </c>
       <c r="B74" t="n">
-        <v>1.53</v>
+        <v>-0.04</v>
       </c>
       <c r="C74" t="n">
-        <v>-4.97</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.24</v>
+        <v>-0.05</v>
       </c>
       <c r="B75" t="n">
-        <v>1.53</v>
+        <v>-0.04</v>
       </c>
       <c r="C75" t="n">
-        <v>-4.97</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.21</v>
+        <v>-0.06</v>
       </c>
       <c r="B76" t="n">
-        <v>1.51</v>
+        <v>-0.04</v>
       </c>
       <c r="C76" t="n">
-        <v>-4.93</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.23</v>
+        <v>-0.06</v>
       </c>
       <c r="B77" t="n">
-        <v>1.52</v>
+        <v>-0.04</v>
       </c>
       <c r="C77" t="n">
-        <v>-4.95</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.23</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="B78" t="n">
-        <v>1.52</v>
+        <v>-0.04</v>
       </c>
       <c r="C78" t="n">
-        <v>-4.95</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.23</v>
+        <v>-0.08</v>
       </c>
       <c r="B79" t="n">
-        <v>1.52</v>
+        <v>-0.04</v>
       </c>
       <c r="C79" t="n">
-        <v>-4.95</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.21</v>
+        <v>-0.08</v>
       </c>
       <c r="B80" t="n">
-        <v>1.52</v>
+        <v>-0.04</v>
       </c>
       <c r="C80" t="n">
-        <v>-4.98</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.23</v>
+        <v>-0.09</v>
       </c>
       <c r="B81" t="n">
-        <v>1.53</v>
+        <v>-0.06</v>
       </c>
       <c r="C81" t="n">
-        <v>-5.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.21</v>
+        <v>-0.08</v>
       </c>
       <c r="B82" t="n">
-        <v>1.51</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>-4.99</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.21</v>
+        <v>-0.08</v>
       </c>
       <c r="B83" t="n">
-        <v>1.51</v>
+        <v>-0.09</v>
       </c>
       <c r="C83" t="n">
-        <v>-4.99</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.2</v>
+        <v>-0.08</v>
       </c>
       <c r="B84" t="n">
-        <v>1.5</v>
+        <v>-0.09</v>
       </c>
       <c r="C84" t="n">
-        <v>-4.98</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.2</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="B85" t="n">
-        <v>1.48</v>
+        <v>-0.11</v>
       </c>
       <c r="C85" t="n">
-        <v>-4.94</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.2</v>
+        <v>-0.05</v>
       </c>
       <c r="B86" t="n">
-        <v>1.46</v>
+        <v>-0.12</v>
       </c>
       <c r="C86" t="n">
-        <v>-4.92</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.2</v>
+        <v>-0.05</v>
       </c>
       <c r="B87" t="n">
-        <v>1.46</v>
+        <v>-0.13</v>
       </c>
       <c r="C87" t="n">
-        <v>-4.92</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.19</v>
+        <v>-0.04</v>
       </c>
       <c r="B88" t="n">
-        <v>1.44</v>
+        <v>-0.13</v>
       </c>
       <c r="C88" t="n">
-        <v>-4.91</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.19</v>
+        <v>-0.04</v>
       </c>
       <c r="B89" t="n">
-        <v>1.44</v>
+        <v>-0.13</v>
       </c>
       <c r="C89" t="n">
-        <v>-4.94</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.19</v>
+        <v>-0.02</v>
       </c>
       <c r="B90" t="n">
-        <v>1.43</v>
+        <v>-0.13</v>
       </c>
       <c r="C90" t="n">
-        <v>-4.95</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.19</v>
+        <v>-0.02</v>
       </c>
       <c r="B91" t="n">
-        <v>1.43</v>
+        <v>-0.13</v>
       </c>
       <c r="C91" t="n">
-        <v>-4.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.19</v>
+        <v>-0.03</v>
       </c>
       <c r="B92" t="n">
-        <v>1.43</v>
+        <v>-0.11</v>
       </c>
       <c r="C92" t="n">
-        <v>-4.98</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.19</v>
+        <v>-0.03</v>
       </c>
       <c r="B93" t="n">
-        <v>1.41</v>
+        <v>-0.11</v>
       </c>
       <c r="C93" t="n">
-        <v>-4.99</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.19</v>
+        <v>-0.03</v>
       </c>
       <c r="B94" t="n">
-        <v>1.39</v>
+        <v>-0.11</v>
       </c>
       <c r="C94" t="n">
-        <v>-4.98</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.19</v>
+        <v>-0.02</v>
       </c>
       <c r="B95" t="n">
-        <v>1.36</v>
+        <v>-0.11</v>
       </c>
       <c r="C95" t="n">
-        <v>-4.94</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.19</v>
+        <v>-0.02</v>
       </c>
       <c r="B96" t="n">
-        <v>1.36</v>
+        <v>-0.09</v>
       </c>
       <c r="C96" t="n">
-        <v>-4.94</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.18</v>
+        <v>-0.02</v>
       </c>
       <c r="B97" t="n">
-        <v>1.34</v>
+        <v>-0.09</v>
       </c>
       <c r="C97" t="n">
-        <v>-4.91</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.18</v>
+        <v>-0.02</v>
       </c>
       <c r="B98" t="n">
-        <v>1.31</v>
+        <v>-0.09</v>
       </c>
       <c r="C98" t="n">
-        <v>-4.89</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.17</v>
+        <v>-0.01</v>
       </c>
       <c r="B99" t="n">
-        <v>1.29</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>-4.87</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.16</v>
+        <v>-0</v>
       </c>
       <c r="B100" t="n">
-        <v>1.27</v>
+        <v>-0.06</v>
       </c>
       <c r="C100" t="n">
-        <v>-4.87</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.16</v>
+        <v>-0</v>
       </c>
       <c r="B101" t="n">
-        <v>1.27</v>
+        <v>-0.04</v>
       </c>
       <c r="C101" t="n">
-        <v>-4.87</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.16</v>
+        <v>-0.01</v>
       </c>
       <c r="B102" t="n">
-        <v>1.25</v>
+        <v>-0.04</v>
       </c>
       <c r="C102" t="n">
-        <v>-4.88</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.16</v>
+        <v>-0.01</v>
       </c>
       <c r="B103" t="n">
-        <v>1.22</v>
+        <v>-0.04</v>
       </c>
       <c r="C103" t="n">
-        <v>-4.89</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.16</v>
+        <v>-0.02</v>
       </c>
       <c r="B104" t="n">
-        <v>1.21</v>
+        <v>-0.03</v>
       </c>
       <c r="C104" t="n">
-        <v>-4.93</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.16</v>
+        <v>-0.02</v>
       </c>
       <c r="B105" t="n">
-        <v>1.21</v>
+        <v>-0.02</v>
       </c>
       <c r="C105" t="n">
-        <v>-4.93</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.16</v>
+        <v>-0.02</v>
       </c>
       <c r="B106" t="n">
-        <v>1.19</v>
+        <v>-0.02</v>
       </c>
       <c r="C106" t="n">
-        <v>-4.95</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.16</v>
+        <v>-0.02</v>
       </c>
       <c r="B107" t="n">
-        <v>1.16</v>
+        <v>-0.02</v>
       </c>
       <c r="C107" t="n">
-        <v>-4.94</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.16</v>
+        <v>-0.01</v>
       </c>
       <c r="B108" t="n">
-        <v>1.13</v>
+        <v>-0.01</v>
       </c>
       <c r="C108" t="n">
-        <v>-4.94</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.16</v>
+        <v>-0.01</v>
       </c>
       <c r="B109" t="n">
-        <v>1.1</v>
+        <v>-0.01</v>
       </c>
       <c r="C109" t="n">
-        <v>-4.92</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.16</v>
+        <v>-0.02</v>
       </c>
       <c r="B110" t="n">
-        <v>1.1</v>
+        <v>-0.02</v>
       </c>
       <c r="C110" t="n">
-        <v>-4.92</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.18</v>
+        <v>-0.02</v>
       </c>
       <c r="B111" t="n">
-        <v>1.05</v>
+        <v>-0.01</v>
       </c>
       <c r="C111" t="n">
-        <v>-4.89</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.18</v>
+        <v>-0.02</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01</v>
+        <v>-0.01</v>
       </c>
       <c r="C112" t="n">
-        <v>-4.87</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.17</v>
+        <v>-0.02</v>
       </c>
       <c r="B113" t="n">
-        <v>0.98</v>
+        <v>-0.02</v>
       </c>
       <c r="C113" t="n">
-        <v>-4.86</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.17</v>
+        <v>-0.02</v>
       </c>
       <c r="B114" t="n">
-        <v>0.98</v>
+        <v>-0.01</v>
       </c>
       <c r="C114" t="n">
-        <v>-4.86</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.17</v>
+        <v>-0.03</v>
       </c>
       <c r="B115" t="n">
-        <v>0.95</v>
+        <v>-0.03</v>
       </c>
       <c r="C115" t="n">
-        <v>-4.87</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.17</v>
+        <v>-0.03</v>
       </c>
       <c r="B116" t="n">
-        <v>0.93</v>
+        <v>-0.03</v>
       </c>
       <c r="C116" t="n">
-        <v>-4.89</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.17</v>
+        <v>-0.04</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9</v>
+        <v>-0.02</v>
       </c>
       <c r="C117" t="n">
-        <v>-4.91</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.16</v>
+        <v>-0.04</v>
       </c>
       <c r="B118" t="n">
-        <v>0.84</v>
+        <v>-0.03</v>
       </c>
       <c r="C118" t="n">
-        <v>-4.91</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.16</v>
+        <v>-0.05</v>
       </c>
       <c r="B119" t="n">
-        <v>0.84</v>
+        <v>-0.04</v>
       </c>
       <c r="C119" t="n">
-        <v>-4.91</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.15</v>
+        <v>-0.05</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8</v>
+        <v>-0.05</v>
       </c>
       <c r="C120" t="n">
-        <v>-4.91</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.15</v>
+        <v>-0.05</v>
       </c>
       <c r="B121" t="n">
-        <v>0.75</v>
+        <v>-0.05</v>
       </c>
       <c r="C121" t="n">
-        <v>-4.92</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.15</v>
+        <v>-0.06</v>
       </c>
       <c r="B122" t="n">
-        <v>0.7</v>
+        <v>-0.06</v>
       </c>
       <c r="C122" t="n">
-        <v>-4.94</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.14</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="B123" t="n">
-        <v>0.61</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>-4.93</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.14</v>
+        <v>-0.06</v>
       </c>
       <c r="B124" t="n">
-        <v>0.61</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>-4.93</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.14</v>
+        <v>-0.06</v>
       </c>
       <c r="B125" t="n">
-        <v>0.55</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>-4.99</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.14</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="B126" t="n">
-        <v>0.44</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>-4.94</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.14</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="B127" t="n">
-        <v>0.35</v>
+        <v>-0.06</v>
       </c>
       <c r="C127" t="n">
-        <v>-4.97</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.14</v>
+        <v>-0.08</v>
       </c>
       <c r="B128" t="n">
-        <v>0.35</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>-4.97</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.14</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="B129" t="n">
-        <v>0.23</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>-4.99</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.15</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="B130" t="n">
-        <v>0.09</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>-5.01</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.14</v>
+        <v>-0.08</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.03</v>
+        <v>-0.08</v>
       </c>
       <c r="C131" t="n">
-        <v>-4.98</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.14</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.17</v>
+        <v>-0.1</v>
       </c>
       <c r="C132" t="n">
-        <v>-4.97</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.14</v>
+        <v>-0.06</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.17</v>
+        <v>-0.12</v>
       </c>
       <c r="C133" t="n">
-        <v>-4.97</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.15</v>
+        <v>-0.06</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.32</v>
+        <v>-0.12</v>
       </c>
       <c r="C134" t="n">
-        <v>-4.92</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.13</v>
+        <v>-0.06</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.44</v>
+        <v>-0.12</v>
       </c>
       <c r="C135" t="n">
-        <v>-4.89</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.13</v>
+        <v>-0.05</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.57</v>
+        <v>-0.13</v>
       </c>
       <c r="C136" t="n">
-        <v>-4.91</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.13</v>
+        <v>-0.05</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.57</v>
+        <v>-0.13</v>
       </c>
       <c r="C137" t="n">
-        <v>-4.91</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.13</v>
+        <v>-0.03</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.73</v>
+        <v>-0.14</v>
       </c>
       <c r="C138" t="n">
-        <v>-4.9</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.13</v>
+        <v>-0.03</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.9</v>
+        <v>-0.14</v>
       </c>
       <c r="C139" t="n">
-        <v>-4.92</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.14</v>
+        <v>-0.01</v>
       </c>
       <c r="B140" t="n">
-        <v>-1.07</v>
+        <v>-0.13</v>
       </c>
       <c r="C140" t="n">
-        <v>-4.91</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.15</v>
+        <v>-0.01</v>
       </c>
       <c r="B141" t="n">
-        <v>-1.24</v>
+        <v>-0.12</v>
       </c>
       <c r="C141" t="n">
-        <v>-4.89</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.15</v>
+        <v>-0.02</v>
       </c>
       <c r="B142" t="n">
-        <v>-1.24</v>
+        <v>-0.12</v>
       </c>
       <c r="C142" t="n">
-        <v>-4.89</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.16</v>
+        <v>-0.02</v>
       </c>
       <c r="B143" t="n">
-        <v>-1.46</v>
+        <v>-0.11</v>
       </c>
       <c r="C143" t="n">
-        <v>-4.85</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.16</v>
+        <v>-0.02</v>
       </c>
       <c r="B144" t="n">
-        <v>-1.72</v>
+        <v>-0.11</v>
       </c>
       <c r="C144" t="n">
-        <v>-4.78</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.2</v>
+        <v>-0.02</v>
       </c>
       <c r="B145" t="n">
-        <v>-2</v>
+        <v>-0.1</v>
       </c>
       <c r="C145" t="n">
-        <v>-4.69</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.2</v>
+        <v>-0.01</v>
       </c>
       <c r="B146" t="n">
-        <v>-2</v>
+        <v>-0.1</v>
       </c>
       <c r="C146" t="n">
-        <v>-4.69</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.19</v>
+        <v>-0.01</v>
       </c>
       <c r="B147" t="n">
-        <v>-2.27</v>
+        <v>-0.1</v>
       </c>
       <c r="C147" t="n">
-        <v>-4.59</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.17</v>
+        <v>-0</v>
       </c>
       <c r="B148" t="n">
-        <v>-2.44</v>
+        <v>-0.08</v>
       </c>
       <c r="C148" t="n">
-        <v>-4.6</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.16</v>
+        <v>-0</v>
       </c>
       <c r="B149" t="n">
-        <v>-2.54</v>
+        <v>-0.08</v>
       </c>
       <c r="C149" t="n">
-        <v>-4.7</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="B150" t="n">
-        <v>-2.6</v>
+        <v>-0.06</v>
       </c>
       <c r="C150" t="n">
-        <v>-4.8</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.16</v>
+        <v>-0</v>
       </c>
       <c r="B151" t="n">
-        <v>-2.6</v>
+        <v>-0.04</v>
       </c>
       <c r="C151" t="n">
-        <v>-4.8</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.16</v>
+        <v>-0</v>
       </c>
       <c r="B152" t="n">
-        <v>-2.62</v>
+        <v>-0.04</v>
       </c>
       <c r="C152" t="n">
-        <v>-4.89</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.16</v>
+        <v>-0</v>
       </c>
       <c r="B153" t="n">
-        <v>-2.63</v>
+        <v>-0.04</v>
       </c>
       <c r="C153" t="n">
-        <v>-4.96</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.17</v>
+        <v>-0.02</v>
       </c>
       <c r="B154" t="n">
-        <v>-2.64</v>
+        <v>-0.02</v>
       </c>
       <c r="C154" t="n">
-        <v>-5.02</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.17</v>
+        <v>-0.02</v>
       </c>
       <c r="B155" t="n">
-        <v>-2.65</v>
+        <v>-0.01</v>
       </c>
       <c r="C155" t="n">
-        <v>-5.08</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.17</v>
+        <v>-0.02</v>
       </c>
       <c r="B156" t="n">
-        <v>-2.65</v>
+        <v>-0.01</v>
       </c>
       <c r="C156" t="n">
-        <v>-5.08</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.17</v>
+        <v>-0.02</v>
       </c>
       <c r="B157" t="n">
-        <v>-2.65</v>
+        <v>-0.01</v>
       </c>
       <c r="C157" t="n">
-        <v>-5.11</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.17</v>
+        <v>-0.02</v>
       </c>
       <c r="B158" t="n">
-        <v>-2.67</v>
+        <v>-0.01</v>
       </c>
       <c r="C158" t="n">
-        <v>-5.14</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.18</v>
+        <v>-0.02</v>
       </c>
       <c r="B159" t="n">
-        <v>-2.66</v>
+        <v>-0.01</v>
       </c>
       <c r="C159" t="n">
-        <v>-5.13</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.18</v>
+        <v>-0.02</v>
       </c>
       <c r="B160" t="n">
-        <v>-2.66</v>
+        <v>-0.01</v>
       </c>
       <c r="C160" t="n">
-        <v>-5.13</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.17</v>
+        <v>-0.03</v>
       </c>
       <c r="B161" t="n">
-        <v>-2.66</v>
+        <v>-0.02</v>
       </c>
       <c r="C161" t="n">
-        <v>-5.13</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.17</v>
+        <v>-0.03</v>
       </c>
       <c r="B162" t="n">
-        <v>-2.65</v>
+        <v>-0.02</v>
       </c>
       <c r="C162" t="n">
-        <v>-5.12</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.17</v>
+        <v>-0.04</v>
       </c>
       <c r="B163" t="n">
-        <v>-2.65</v>
+        <v>-0.02</v>
       </c>
       <c r="C163" t="n">
-        <v>-5.12</v>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>-0</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>-0</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
